--- a/milancosmetics адаптив.xlsx
+++ b/milancosmetics адаптив.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -120,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +138,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -165,10 +178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -178,9 +192,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,7 +476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -492,13 +510,13 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.5</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="5">
         <v>0.5</v>
       </c>
     </row>

--- a/milancosmetics адаптив.xlsx
+++ b/milancosmetics адаптив.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,32 +521,33 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.5</v>
       </c>
     </row>

--- a/milancosmetics адаптив.xlsx
+++ b/milancosmetics адаптив.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>768px</t>
   </si>
@@ -114,13 +114,28 @@
   </si>
   <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>пеработка</t>
+  </si>
+  <si>
+    <t>блок брендов + спаренные блоки</t>
+  </si>
+  <si>
+    <t>скрытие / показ текста + спаренные блоки</t>
+  </si>
+  <si>
+    <t>на разных разрешениях разная структура</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +161,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +180,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -178,11 +206,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -193,9 +222,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,18 +513,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -495,21 +536,29 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -519,8 +568,9 @@
       <c r="C5" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -530,8 +580,11 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -539,8 +592,12 @@
       <c r="C7" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -550,30 +607,52 @@
       <c r="C9" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -583,8 +662,17 @@
       <c r="C15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -594,8 +682,12 @@
       <c r="C17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -605,8 +697,12 @@
       <c r="C19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -616,8 +712,12 @@
       <c r="C21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -627,8 +727,12 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -638,8 +742,12 @@
       <c r="C25">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -649,8 +757,12 @@
       <c r="C27">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -660,18 +772,24 @@
       <c r="C29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -681,8 +799,12 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -692,8 +814,12 @@
       <c r="C35">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -703,8 +829,12 @@
       <c r="C37">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -714,8 +844,12 @@
       <c r="C39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -725,8 +859,12 @@
       <c r="C41">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -736,24 +874,36 @@
       <c r="C43">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>404</v>
       </c>
       <c r="B47">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
@@ -763,13 +913,15 @@
       <c r="C49">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -780,6 +932,10 @@
       <c r="C51">
         <f>SUM(C5:C50)</f>
         <v>12</v>
+      </c>
+      <c r="D51" s="6">
+        <f>SUM(D2:D50)</f>
+        <v>0.21527777777777776</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics адаптив.xlsx
+++ b/milancosmetics адаптив.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>768px</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>на разных разрешениях разная структура</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обучение </t>
   </si>
 </sst>
 </file>
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,17 +656,17 @@
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.5</v>
       </c>
       <c r="D15" s="6">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -916,26 +919,38 @@
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="8"/>
+      <c r="A50" s="1"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>29</v>
       </c>
-      <c r="B51">
-        <f>SUM(B4:B50)</f>
+      <c r="B53">
+        <f>SUM(B4:B52)</f>
         <v>17</v>
       </c>
-      <c r="C51">
-        <f>SUM(C5:C50)</f>
+      <c r="C53">
+        <f>SUM(C5:C52)</f>
         <v>12</v>
       </c>
-      <c r="D51" s="6">
-        <f>SUM(D2:D50)</f>
-        <v>0.21527777777777776</v>
+      <c r="D53" s="6">
+        <f>SUM(D2:D52)</f>
+        <v>0.2638888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics адаптив.xlsx
+++ b/milancosmetics адаптив.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>768px</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t xml:space="preserve">Обучение </t>
+  </si>
+  <si>
+    <t>изначально не оценивалась, не была согласована в десктопе, попап с автошириной, верхние табы скрол</t>
+  </si>
+  <si>
+    <t>верхние табы скрол</t>
+  </si>
+  <si>
+    <t>неоднотипное поведение изображений</t>
   </si>
 </sst>
 </file>
@@ -138,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +181,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +205,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -209,12 +231,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -234,8 +257,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
@@ -518,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,16 +629,21 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
@@ -675,52 +708,57 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
         <v>0.5</v>
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19">
-        <v>0.5</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="5">
         <v>0.5</v>
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B21">
-        <v>0.5</v>
-      </c>
-      <c r="C21">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -732,10 +770,10 @@
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -747,10 +785,10 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -762,10 +800,10 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -777,16 +815,16 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -906,7 +944,7 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
@@ -918,25 +956,30 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="6">
-        <v>2.7777777777777776E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -950,7 +993,7 @@
       </c>
       <c r="D53" s="6">
         <f>SUM(D2:D52)</f>
-        <v>0.2638888888888889</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics адаптив.xlsx
+++ b/milancosmetics адаптив.xlsx
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,16 +629,16 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E9" t="s">

--- a/milancosmetics адаптив.xlsx
+++ b/milancosmetics адаптив.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>768px</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>неоднотипное поведение изображений</t>
+  </si>
+  <si>
+    <t>выпадающий список брендов</t>
+  </si>
+  <si>
+    <t>выпадающий блок банковских реквизитов + кнопка вакансий</t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,14 +181,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -190,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,11 +198,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -231,13 +224,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -251,21 +243,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
+  <cellStyles count="3">
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,13 +727,13 @@
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="8">
         <v>0.5</v>
       </c>
       <c r="D21" s="6">
@@ -768,7 +756,12 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="6">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
@@ -830,7 +823,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -842,10 +835,10 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -857,10 +850,10 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -870,12 +863,17 @@
       <c r="C37">
         <v>0.5</v>
       </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="6">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -887,10 +885,10 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -902,10 +900,10 @@
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -917,10 +915,10 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
@@ -929,10 +927,10 @@
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>404</v>
       </c>
@@ -941,7 +939,7 @@
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,12 +959,12 @@
       <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E51" t="s">
@@ -977,7 +975,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -993,7 +991,7 @@
       </c>
       <c r="D53" s="6">
         <f>SUM(D2:D52)</f>
-        <v>0.41666666666666669</v>
+        <v>0.4513888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/milancosmetics адаптив.xlsx
+++ b/milancosmetics адаптив.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,13 +747,13 @@
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B23">
-        <v>0.5</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="6">
@@ -767,13 +767,13 @@
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B25">
-        <v>0.5</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="5">
         <v>0.5</v>
       </c>
       <c r="D25" s="6"/>
@@ -782,13 +782,13 @@
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B27">
-        <v>0.5</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="5">
         <v>0.5</v>
       </c>
       <c r="D27" s="6"/>
@@ -797,13 +797,13 @@
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B29">
-        <v>0.5</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="5">
         <v>0.5</v>
       </c>
       <c r="D29" s="6"/>
@@ -812,9 +812,11 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">

--- a/milancosmetics адаптив.xlsx
+++ b/milancosmetics адаптив.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,19 +820,21 @@
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
         <v>1</v>
       </c>
       <c r="D33" s="6"/>
@@ -841,13 +843,13 @@
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B35">
-        <v>0.5</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="5">
         <v>0.5</v>
       </c>
       <c r="D35" s="6"/>

--- a/milancosmetics адаптив.xlsx
+++ b/milancosmetics адаптив.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,13 +858,13 @@
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
         <v>0.5</v>
       </c>
       <c r="D37" s="6">

--- a/milancosmetics адаптив.xlsx
+++ b/milancosmetics адаптив.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklif\PhpstormProjects\milancosmetics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miled\PhpstormProjects\milancosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>768px</t>
   </si>
@@ -131,12 +131,6 @@
     <t xml:space="preserve">Обучение </t>
   </si>
   <si>
-    <t>изначально не оценивалась, не была согласована в десктопе, попап с автошириной, верхние табы скрол</t>
-  </si>
-  <si>
-    <t>верхние табы скрол</t>
-  </si>
-  <si>
     <t>неоднотипное поведение изображений</t>
   </si>
   <si>
@@ -144,6 +138,9 @@
   </si>
   <si>
     <t>выпадающий блок банковских реквизитов + кнопка вакансий</t>
+  </si>
+  <si>
+    <t>попап с автошириной</t>
   </si>
 </sst>
 </file>
@@ -235,9 +232,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -249,6 +243,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -534,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,93 +557,94 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="5">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="5">
         <v>0.10416666666666667</v>
       </c>
       <c r="E11" t="s">
@@ -654,19 +652,19 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="5">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="E13" t="s">
@@ -674,19 +672,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="5">
         <v>6.25E-2</v>
       </c>
       <c r="E15" t="s">
@@ -694,292 +692,291 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="6"/>
+      <c r="B19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="B21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="5">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="6"/>
+      <c r="B25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="6"/>
+      <c r="B27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C29" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="6"/>
+      <c r="B29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6"/>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="6"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C35" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="6"/>
+      <c r="B35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="6"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="5">
-        <v>1</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="5">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="6"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B39">
-        <v>0.5</v>
-      </c>
-      <c r="C39">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="6"/>
+      <c r="B39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="6"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="6"/>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="6"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B43">
-        <v>0.5</v>
-      </c>
-      <c r="C43">
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="6"/>
+      <c r="B43" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="6"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B45">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="6"/>
+      <c r="B45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="6"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="9">
         <v>404</v>
       </c>
-      <c r="B47">
-        <v>0.5</v>
-      </c>
-      <c r="D47" s="6"/>
+      <c r="B47" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="6"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B49">
-        <v>0.5</v>
-      </c>
-      <c r="C49">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="6"/>
+      <c r="B49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="7"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -993,7 +990,7 @@
         <f>SUM(C5:C52)</f>
         <v>12</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <f>SUM(D2:D52)</f>
         <v>0.4513888888888889</v>
       </c>
